--- a/xlsx/country_comparison/field_wish_gpt_positive.xlsx
+++ b/xlsx/country_comparison/field_wish_gpt_positive.xlsx
@@ -518,7 +518,7 @@
         <v>0.421240649320041</v>
       </c>
       <c r="E2" t="n">
-        <v>0.372287168248863</v>
+        <v>0.372287168248864</v>
       </c>
       <c r="F2" t="n">
         <v>0.520607127154529</v>
@@ -542,7 +542,7 @@
         <v>0.592352456069941</v>
       </c>
       <c r="M2" t="n">
-        <v>0.63282470326932</v>
+        <v>0.632824703269319</v>
       </c>
     </row>
     <row r="3">
@@ -788,7 +788,7 @@
         <v>0.0905041032548582</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0684472232632425</v>
+        <v>0.0684472232632424</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         <v>0.0668262267476603</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0990918043897792</v>
+        <v>0.0990918043897791</v>
       </c>
       <c r="F10" t="n">
         <v>0.0502120384863291</v>
@@ -887,7 +887,7 @@
         <v>0.112334385233779</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0986792858973674</v>
+        <v>0.0986792858973675</v>
       </c>
       <c r="F11" t="n">
         <v>0.105887681840091</v>
@@ -1004,7 +1004,7 @@
         <v>0.0755732499616936</v>
       </c>
       <c r="C14" t="n">
-        <v>0.062252860473158</v>
+        <v>0.0622528604731581</v>
       </c>
       <c r="D14" t="n">
         <v>0.0846446771470694</v>
@@ -1165,10 +1165,10 @@
         <v>29</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0312587987486505</v>
+        <v>0.0312587987486504</v>
       </c>
       <c r="C18" t="n">
-        <v>0.032995705857802</v>
+        <v>0.0329957058578021</v>
       </c>
       <c r="D18" t="n">
         <v>0.0169184352054551</v>
@@ -1233,7 +1233,7 @@
         <v>0.0097904234202405</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0263139728601024</v>
+        <v>0.0263139728601025</v>
       </c>
       <c r="L19" t="n">
         <v>0.0750124850365875</v>
@@ -1520,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.00202588789455406</v>
+        <v>0.00202588789455407</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>

--- a/xlsx/country_comparison/field_wish_gpt_positive.xlsx
+++ b/xlsx/country_comparison/field_wish_gpt_positive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -47,6 +47,9 @@
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
+    <t xml:space="preserve">Russia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
@@ -71,12 +74,15 @@
     <t xml:space="preserve">Work; (un)employment; business</t>
   </si>
   <si>
+    <t xml:space="preserve">Housing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nothing; don't know; empty</t>
+  </si>
+  <si>
     <t xml:space="preserve">Own country referred</t>
   </si>
   <si>
-    <t xml:space="preserve">Nothing; don't know; empty</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tax system; welfare benefits; public services</t>
   </si>
   <si>
@@ -86,9 +92,6 @@
     <t xml:space="preserve">War; peace</t>
   </si>
   <si>
-    <t xml:space="preserve">Housing</t>
-  </si>
-  <si>
     <t xml:space="preserve">Relationships; love; emotions</t>
   </si>
   <si>
@@ -101,12 +104,12 @@
     <t xml:space="preserve">Security; violence; crime; judicial system</t>
   </si>
   <si>
+    <t xml:space="preserve">Education</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rights; democracy; freedom; slavery</t>
   </si>
   <si>
-    <t xml:space="preserve">Education</t>
-  </si>
-  <si>
     <t xml:space="preserve">Corruption; criticism of the government</t>
   </si>
   <si>
@@ -119,10 +122,10 @@
     <t xml:space="preserve">Religion; sin; God</t>
   </si>
   <si>
+    <t xml:space="preserve">Global poverty; hunger; global inequality</t>
+  </si>
+  <si>
     <t xml:space="preserve">Criticism of immigration; national preference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global poverty; hunger; global inequality</t>
   </si>
   <si>
     <t xml:space="preserve">Criticism of far right; Trump; tariffs</t>
@@ -503,895 +506,961 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.49928180632159</v>
+        <v>0.480970775284582</v>
       </c>
       <c r="C2" t="n">
         <v>0.449932695668417</v>
       </c>
       <c r="D2" t="n">
-        <v>0.421240649320041</v>
+        <v>0.430714505414509</v>
       </c>
       <c r="E2" t="n">
-        <v>0.372287168248864</v>
+        <v>0.379850306961587</v>
       </c>
       <c r="F2" t="n">
-        <v>0.520607127154529</v>
+        <v>0.519283019996893</v>
       </c>
       <c r="G2" t="n">
-        <v>0.531125954391236</v>
+        <v>0.509035691130886</v>
       </c>
       <c r="H2" t="n">
-        <v>0.374071083460942</v>
+        <v>0.35696975676024</v>
       </c>
       <c r="I2" t="n">
-        <v>0.552959006341196</v>
+        <v>0.547774793298982</v>
       </c>
       <c r="J2" t="n">
-        <v>0.344362067669839</v>
+        <v>0.329915275378447</v>
       </c>
       <c r="K2" t="n">
-        <v>0.286022849840298</v>
+        <v>0.286873238075924</v>
       </c>
       <c r="L2" t="n">
-        <v>0.592352456069941</v>
+        <v>0.382535914488942</v>
       </c>
       <c r="M2" t="n">
-        <v>0.632824703269319</v>
+        <v>0.591065630264003</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.633420069364728</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.370793663177669</v>
+        <v>0.38349806600413</v>
       </c>
       <c r="C3" t="n">
         <v>0.276470716294786</v>
       </c>
       <c r="D3" t="n">
-        <v>0.302892095631859</v>
+        <v>0.303598778912855</v>
       </c>
       <c r="E3" t="n">
-        <v>0.230139568577418</v>
+        <v>0.219088466354011</v>
       </c>
       <c r="F3" t="n">
-        <v>0.332789334767175</v>
+        <v>0.332027661372382</v>
       </c>
       <c r="G3" t="n">
-        <v>0.312114848241644</v>
+        <v>0.342588192192442</v>
       </c>
       <c r="H3" t="n">
-        <v>0.28721746927936</v>
+        <v>0.294054929364606</v>
       </c>
       <c r="I3" t="n">
-        <v>0.233115506711155</v>
+        <v>0.234862255891938</v>
       </c>
       <c r="J3" t="n">
-        <v>0.235090711636501</v>
+        <v>0.241773068797322</v>
       </c>
       <c r="K3" t="n">
-        <v>0.429765503452233</v>
+        <v>0.430521704554094</v>
       </c>
       <c r="L3" t="n">
-        <v>0.441127654168643</v>
+        <v>0.46237619770791</v>
       </c>
       <c r="M3" t="n">
-        <v>0.450754969999279</v>
+        <v>0.438589567928279</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.454630983761312</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.208965345838666</v>
+        <v>0.208001412751204</v>
       </c>
       <c r="C4" t="n">
         <v>0.248313471603173</v>
       </c>
       <c r="D4" t="n">
-        <v>0.209926805959211</v>
+        <v>0.200509520024054</v>
       </c>
       <c r="E4" t="n">
-        <v>0.324285516297467</v>
+        <v>0.338700859532101</v>
       </c>
       <c r="F4" t="n">
-        <v>0.17473916930321</v>
+        <v>0.18075163778984</v>
       </c>
       <c r="G4" t="n">
-        <v>0.194649902435311</v>
+        <v>0.19552786464122</v>
       </c>
       <c r="H4" t="n">
-        <v>0.263563319679601</v>
+        <v>0.264107937466889</v>
       </c>
       <c r="I4" t="n">
-        <v>0.269910243461071</v>
+        <v>0.285191209788138</v>
       </c>
       <c r="J4" t="n">
-        <v>0.297769679005045</v>
+        <v>0.288252973495061</v>
       </c>
       <c r="K4" t="n">
-        <v>0.106263007798719</v>
+        <v>0.106626903721979</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0573099386552024</v>
+        <v>0.203918270085564</v>
       </c>
       <c r="M4" t="n">
-        <v>0.219855783234727</v>
+        <v>0.0495554116447345</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.219446367219462</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.159981442022468</v>
+        <v>0.162874185450769</v>
       </c>
       <c r="C5" t="n">
         <v>0.168675767460597</v>
       </c>
       <c r="D5" t="n">
-        <v>0.178657941425432</v>
+        <v>0.177709841363343</v>
       </c>
       <c r="E5" t="n">
-        <v>0.142149309767295</v>
+        <v>0.136240040232281</v>
       </c>
       <c r="F5" t="n">
-        <v>0.201319585847412</v>
+        <v>0.197631752851924</v>
       </c>
       <c r="G5" t="n">
-        <v>0.279798082505523</v>
+        <v>0.269396231574256</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0674323660878195</v>
+        <v>0.080704594224714</v>
       </c>
       <c r="I5" t="n">
-        <v>0.179552088678902</v>
+        <v>0.181083428783525</v>
       </c>
       <c r="J5" t="n">
-        <v>0.159763501976293</v>
+        <v>0.15618998103631</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0684885960176706</v>
+        <v>0.068711121256305</v>
       </c>
       <c r="L5" t="n">
-        <v>0.24482865265668</v>
+        <v>0.174474491745654</v>
       </c>
       <c r="M5" t="n">
-        <v>0.177345772822317</v>
+        <v>0.249014969288781</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.179764784757296</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.154709022972604</v>
+        <v>0.145391351550358</v>
       </c>
       <c r="C6" t="n">
         <v>0.120420461837184</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0775589671435037</v>
+        <v>0.0716764126842037</v>
       </c>
       <c r="E6" t="n">
-        <v>0.100613339357631</v>
+        <v>0.102435465438322</v>
       </c>
       <c r="F6" t="n">
-        <v>0.101477829500555</v>
+        <v>0.101519633863153</v>
       </c>
       <c r="G6" t="n">
-        <v>0.105148100033617</v>
+        <v>0.0925860347786772</v>
       </c>
       <c r="H6" t="n">
-        <v>0.104745961323146</v>
+        <v>0.111599511465955</v>
       </c>
       <c r="I6" t="n">
-        <v>0.245763036325458</v>
+        <v>0.245882140003428</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0627098385168259</v>
+        <v>0.0668041216665552</v>
       </c>
       <c r="K6" t="n">
-        <v>0.136432934954384</v>
+        <v>0.13541845331236</v>
       </c>
       <c r="L6" t="n">
-        <v>0.143362939452214</v>
+        <v>0.09851849147609</v>
       </c>
       <c r="M6" t="n">
-        <v>0.203590385116224</v>
+        <v>0.151104268891365</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.203500564857389</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.12308578408852</v>
+        <v>0.1230980844336</v>
       </c>
       <c r="C7" t="n">
         <v>0.0925145394106335</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0630323121502405</v>
+        <v>0.0641220705630488</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0857062288651863</v>
+        <v>0.0741523770806195</v>
       </c>
       <c r="F7" t="n">
-        <v>0.153533847115662</v>
+        <v>0.159185858290687</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0642133647854075</v>
+        <v>0.0698329788192129</v>
       </c>
       <c r="H7" t="n">
-        <v>0.145204438267039</v>
+        <v>0.139074978626742</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0578830672132042</v>
+        <v>0.0661069594109144</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0707878965823397</v>
+        <v>0.0739974150158471</v>
       </c>
       <c r="K7" t="n">
-        <v>0.101060218283727</v>
+        <v>0.104448318383477</v>
       </c>
       <c r="L7" t="n">
-        <v>0.270371896928591</v>
+        <v>0.120544120041764</v>
       </c>
       <c r="M7" t="n">
-        <v>0.152239783481125</v>
+        <v>0.264705701631175</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.152363486085498</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.107807234555067</v>
+        <v>0.100062975811625</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0871316721219487</v>
+        <v>0.0635192914300061</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0851501102811508</v>
+        <v>0.0701844083569901</v>
       </c>
       <c r="E8" t="n">
-        <v>0.111494732834548</v>
+        <v>0.0307277086348666</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05182083930885</v>
+        <v>0.0880567938319764</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0596319012516733</v>
+        <v>0.143744057187528</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0571804059212639</v>
+        <v>0.0584045245037492</v>
       </c>
       <c r="I8" t="n">
-        <v>0.118135703511687</v>
+        <v>0.0428909184754753</v>
       </c>
       <c r="J8" t="n">
-        <v>0.15909933643141</v>
+        <v>0.035521555916916</v>
       </c>
       <c r="K8" t="n">
-        <v>0.27157977923308</v>
+        <v>0.0153511539163466</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0905041032548582</v>
+        <v>0.215747802030548</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0684472232632424</v>
+        <v>0.124061652553908</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.122594419481344</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.105604992221853</v>
+        <v>0.100062096549258</v>
       </c>
       <c r="C9" t="n">
         <v>0.144739336216069</v>
       </c>
       <c r="D9" t="n">
-        <v>0.179237941824254</v>
+        <v>0.169937045991076</v>
       </c>
       <c r="E9" t="n">
-        <v>0.138662645633727</v>
+        <v>0.129494154250173</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0740662919017711</v>
+        <v>0.0722512388783632</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0722315756133809</v>
+        <v>0.074365555345283</v>
       </c>
       <c r="H9" t="n">
-        <v>0.229421232278905</v>
+        <v>0.230925184978611</v>
       </c>
       <c r="I9" t="n">
-        <v>0.153202606521393</v>
+        <v>0.156706562068422</v>
       </c>
       <c r="J9" t="n">
-        <v>0.143704173813897</v>
+        <v>0.143496499849172</v>
       </c>
       <c r="K9" t="n">
-        <v>0.119533862182204</v>
+        <v>0.12023860190341</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0225548665619835</v>
+        <v>0.0672606000602551</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0627870449430955</v>
+        <v>0.0204861409133044</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.0617420900988136</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0951329584896475</v>
+        <v>0.0939759917722829</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0672871131000313</v>
+        <v>0.0871316721219487</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0668262267476603</v>
+        <v>0.0810811941333479</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0990918043897791</v>
+        <v>0.106441275818055</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0502120384863291</v>
+        <v>0.0566279032087552</v>
       </c>
       <c r="G10" t="n">
-        <v>0.044167673227811</v>
+        <v>0.0520853927838186</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0395231342508867</v>
+        <v>0.0488300324020495</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0646290800206567</v>
+        <v>0.122959709506436</v>
       </c>
       <c r="J10" t="n">
-        <v>0.142470358992452</v>
+        <v>0.165051076246097</v>
       </c>
       <c r="K10" t="n">
-        <v>0.299876224800791</v>
+        <v>0.272116767843546</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0333367715838053</v>
+        <v>0.0192008425184825</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0525449186912351</v>
+        <v>0.0989443281913727</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.0666246995686403</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0881539200943488</v>
+        <v>0.0808265734542096</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0901526582578352</v>
+        <v>0.0672871131000313</v>
       </c>
       <c r="D11" t="n">
-        <v>0.112334385233779</v>
+        <v>0.0726654795684381</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0986792858973675</v>
+        <v>0.0961371148960204</v>
       </c>
       <c r="F11" t="n">
-        <v>0.105887681840091</v>
+        <v>0.0531777655747486</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0684130818451965</v>
+        <v>0.047708258327873</v>
       </c>
       <c r="H11" t="n">
-        <v>0.100788392293693</v>
+        <v>0.0425692434084225</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0475929814193316</v>
+        <v>0.0706878949186356</v>
       </c>
       <c r="J11" t="n">
-        <v>0.054576987282927</v>
+        <v>0.139239085555117</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0961820432156798</v>
+        <v>0.298063895786922</v>
       </c>
       <c r="L11" t="n">
-        <v>0.168332541630035</v>
+        <v>0.00393318790928157</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0740709230158698</v>
+        <v>0.0336826727723516</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.0523139132216924</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0824883921365221</v>
+        <v>0.0780730030648798</v>
       </c>
       <c r="C12" t="n">
-        <v>0.100552755154766</v>
+        <v>0.0901526582578352</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0872000164983574</v>
+        <v>0.110588816330251</v>
       </c>
       <c r="E12" t="n">
-        <v>0.174897649913157</v>
+        <v>0.103388392411287</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0628823701086562</v>
+        <v>0.102315808626918</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0882237671730626</v>
+        <v>0.0871959785086038</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0964667872857805</v>
+        <v>0.106739591492894</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0603640047268404</v>
+        <v>0.0495594431604003</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0996944391904049</v>
+        <v>0.0557964745349515</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0861479163210254</v>
+        <v>0.095508022197655</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0276918584646427</v>
+        <v>0.0249805501888962</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0655808219861138</v>
+        <v>0.160557446962959</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.0740313951637463</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0798451878132394</v>
+        <v>0.0727288953861513</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0635192914300061</v>
+        <v>0.100552755154766</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0634103859575755</v>
+        <v>0.0831589455316494</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0353560355740726</v>
+        <v>0.181335642359528</v>
       </c>
       <c r="F13" t="n">
-        <v>0.082059859378382</v>
+        <v>0.0624158969990063</v>
       </c>
       <c r="G13" t="n">
-        <v>0.138984495112426</v>
+        <v>0.0757696859204116</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0609743967992052</v>
+        <v>0.0844650018336526</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0459570563811352</v>
+        <v>0.0640757056694225</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0400761186656908</v>
+        <v>0.108997123980324</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0162918645029616</v>
+        <v>0.0884812762770774</v>
       </c>
       <c r="L13" t="n">
-        <v>0.120771859225792</v>
+        <v>0.0176579144102982</v>
       </c>
       <c r="M13" t="n">
-        <v>0.12014725830715</v>
+        <v>0.0284285462270132</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.0654105871665159</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0755732499616936</v>
+        <v>0.0689741029954947</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0622528604731581</v>
+        <v>0.062252860473158</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0846446771470694</v>
+        <v>0.0786250915915428</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0669393583547492</v>
+        <v>0.0732239079678448</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0608681278809288</v>
+        <v>0.0554277120006161</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0222109852976675</v>
+        <v>0.0191130117994314</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0434779828865893</v>
+        <v>0.048082149805928</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0720122570182107</v>
+        <v>0.0673369545398527</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0453533242761701</v>
+        <v>0.0420484062401228</v>
       </c>
       <c r="K14" t="n">
-        <v>0.00618055864405839</v>
+        <v>0.00667429312556995</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0251359741543859</v>
+        <v>0.030201942347826</v>
       </c>
       <c r="M14" t="n">
-        <v>0.124379986502098</v>
+        <v>0.0220996987239972</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.121035579433543</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0739072512892291</v>
+        <v>0.0659235352741367</v>
       </c>
       <c r="C15" t="n">
         <v>0.0555416335961559</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0726221897350125</v>
+        <v>0.0680403585016069</v>
       </c>
       <c r="E15" t="n">
-        <v>0.068594175141681</v>
+        <v>0.0701807637107807</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0310691996426266</v>
+        <v>0.035525824296384</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0275450705016033</v>
+        <v>0.0266671385915977</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0295322912193186</v>
+        <v>0.0335240300903662</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0770801410477727</v>
+        <v>0.0800222364918165</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0590538316046552</v>
+        <v>0.0537928392806654</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0980109873067516</v>
+        <v>0.0964609688274934</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0318508017082483</v>
+        <v>0.0230100195412476</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0903484923570344</v>
+        <v>0.0317427123668093</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.0916662947607395</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0680731059021754</v>
+        <v>0.0623290483975112</v>
       </c>
       <c r="C16" t="n">
         <v>0.0678888899197089</v>
       </c>
       <c r="D16" t="n">
-        <v>0.082092970293682</v>
+        <v>0.0766637424337588</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0604511666353321</v>
+        <v>0.058479003534329</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0482047357679068</v>
+        <v>0.0468718388910785</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0749066773216658</v>
+        <v>0.0775360913698474</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0368922555297618</v>
+        <v>0.0298974248514686</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0976261967547986</v>
+        <v>0.0979323812378051</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0847222552349648</v>
+        <v>0.0831679651833013</v>
       </c>
       <c r="K16" t="n">
-        <v>0.08246680636904</v>
+        <v>0.0808841576801516</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0385504423560369</v>
+        <v>0.0310488638645976</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0656663575894531</v>
+        <v>0.0337093324848879</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.0643888275457631</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0625635841950662</v>
+        <v>0.0571199359009079</v>
       </c>
       <c r="C17" t="n">
         <v>0.0619921172149611</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0814574813488907</v>
+        <v>0.0810336727568943</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0678391923037971</v>
+        <v>0.0662302102221586</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0430610945610725</v>
+        <v>0.0422633984671631</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0395052409286277</v>
+        <v>0.0351864527341478</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0621092560826946</v>
+        <v>0.0558909977421723</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0571331062324147</v>
+        <v>0.0578085539731153</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0928302745205607</v>
+        <v>0.0977583348012284</v>
       </c>
       <c r="K17" t="n">
-        <v>0.103282745520283</v>
+        <v>0.101644374785414</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0248191449422589</v>
+        <v>0.0269160301794523</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0509515429976227</v>
+        <v>0.0229930688654548</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.0506771174541164</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0312587987486504</v>
+        <v>0.0288094397935801</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0329957058578021</v>
+        <v>0.017611031177937</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0169184352054551</v>
+        <v>0.0185418084524379</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0511475863549192</v>
+        <v>0.0171594663909559</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0110857404439161</v>
+        <v>0.0113959123064546</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0420920458760489</v>
+        <v>0.0086597594208662</v>
       </c>
       <c r="H18" t="n">
-        <v>0.00979803812497911</v>
+        <v>0.020847666658421</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0493893205429278</v>
+        <v>0.0195685497628379</v>
       </c>
       <c r="J18" t="n">
-        <v>0.106634100820155</v>
+        <v>0.0101314460773026</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0159533905584362</v>
+        <v>0.025598914163423</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0360443295815183</v>
+        <v>0.0532856140622275</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0348305397119661</v>
+        <v>0.0790068821805726</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.0262985917231421</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0246506103445323</v>
+        <v>0.0264810788851443</v>
       </c>
       <c r="C19" t="n">
-        <v>0.017611031177937</v>
+        <v>0.0329957058578021</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0185499081210267</v>
+        <v>0.018052233261442</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0204929599902858</v>
+        <v>0.0513222885365416</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0100541749075469</v>
+        <v>0.0112250333288652</v>
       </c>
       <c r="G19" t="n">
-        <v>0.00996991781449717</v>
+        <v>0.0410415469087226</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0234058665388466</v>
+        <v>0.00941716266274787</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0206443490739272</v>
+        <v>0.0474725902142303</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0097904234202405</v>
+        <v>0.109256759002246</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0263139728601025</v>
+        <v>0.0173924457833681</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0750124850365875</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0269214938850154</v>
+        <v>0.0306299118348573</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.0332636586344221</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0214773508241871</v>
+        <v>0.018601891708331</v>
       </c>
       <c r="C20" t="n">
         <v>0.0222920372084341</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0195605544441232</v>
+        <v>0.0176165892070421</v>
       </c>
       <c r="E20" t="n">
-        <v>0.023031438154428</v>
+        <v>0.0247648048085636</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0239224698770047</v>
+        <v>0.0263307331462874</v>
       </c>
       <c r="G20" t="n">
-        <v>0.018786350833646</v>
+        <v>0.0156359719814758</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0363099408066653</v>
+        <v>0.0365892757027239</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0129177544115503</v>
+        <v>0.0128570373930679</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0284400721505475</v>
+        <v>0.026465295788619</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0500194872000686</v>
+        <v>0.0488627195025423</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>0.00336318400236858</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0113783445642983</v>
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.0110201536247897</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0194997311573197</v>
+        <v>0.0164627970358194</v>
       </c>
       <c r="C21" t="n">
         <v>0.0216396600356974</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0170263945494016</v>
+        <v>0.0180615587169546</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0421707652598216</v>
+        <v>0.0417312000470512</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0100573631648735</v>
+        <v>0.00835156014090111</v>
       </c>
       <c r="G21" t="n">
-        <v>0.00619169422988159</v>
+        <v>0.00812661283648955</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0179540737411315</v>
+        <v>0.0165271735244459</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0121224246462115</v>
+        <v>0.0117128760675959</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0854713296914769</v>
+        <v>0.0835917780908648</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0100399691020933</v>
+        <v>0.0108251287360204</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0341038099388802</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0192147730833907</v>
+        <v>0.0335435645639343</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.0191318239230357</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0161927637846135</v>
+        <v>0.0136659898775387</v>
       </c>
       <c r="C22" t="n">
         <v>0.0230983022518674</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0231132972368168</v>
+        <v>0.021915739814745</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0368050696662858</v>
+        <v>0.0340060313222816</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0112046607231562</v>
+        <v>0.0125970730652407</v>
       </c>
       <c r="G22" t="n">
-        <v>0.027811858884365</v>
+        <v>0.0264500134354641</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0252183302786456</v>
+        <v>0.0245016176817279</v>
       </c>
       <c r="J22" t="n">
-        <v>0.061507852399933</v>
+        <v>0.0598111153116144</v>
       </c>
       <c r="K22" t="n">
-        <v>0.01828284819503</v>
+        <v>0.0159744352607008</v>
       </c>
       <c r="L22" t="n">
-        <v>0.00653474933524301</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.00825357151399457</v>
+        <v>0.0056591287316197</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.00902599124483849</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0134007664111266</v>
+        <v>0.0118261048133898</v>
       </c>
       <c r="C23" t="n">
         <v>0.00653485539630399</v>
       </c>
       <c r="D23" t="n">
-        <v>0.00848411021847246</v>
+        <v>0.00643092238425799</v>
       </c>
       <c r="E23" t="n">
-        <v>0.00737886905348783</v>
+        <v>0.00657409117054134</v>
       </c>
       <c r="F23" t="n">
-        <v>0.00580456485867381</v>
+        <v>0.00511417380371708</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.00651504458674876</v>
+        <v>0.00740187396793866</v>
       </c>
       <c r="I23" t="n">
-        <v>0.00863510858307686</v>
+        <v>0.00743679849884718</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1400,115 +1469,124 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0538881762730849</v>
+        <v>0.0034066379177454</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0225443699353621</v>
+        <v>0.0568545854228377</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.0217735435025381</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0112649133393528</v>
+        <v>0.00998148983442071</v>
       </c>
       <c r="C24" t="n">
-        <v>0.013047801090276</v>
+        <v>0.00819935265978798</v>
       </c>
       <c r="D24" t="n">
-        <v>0.00409076148804175</v>
+        <v>0.0102960558913913</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0337781732090477</v>
+        <v>0.00330224422014463</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>0.0191647460002275</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>0.00737184881470268</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0208139863943847</v>
+        <v>0.00304250610842262</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0438938058400078</v>
+        <v>0.0209182508826024</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0121518855976962</v>
+        <v>0.00174709977982922</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>0.00329109661641107</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0100079668067478</v>
+        <v>0.00476906523058334</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.0181877874252677</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0111438518041152</v>
+        <v>0.00954549057913873</v>
       </c>
       <c r="C25" t="n">
-        <v>0.00819935265978798</v>
+        <v>0.013047801090276</v>
       </c>
       <c r="D25" t="n">
-        <v>0.00928492984279698</v>
+        <v>0.00313017848487854</v>
       </c>
       <c r="E25" t="n">
-        <v>0.00381505037505777</v>
+        <v>0.0289071544718255</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0194357652134785</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0110309938693551</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.00378758154967136</v>
+        <v>0.0199424753566033</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0166601897846624</v>
+        <v>0.0476756028609541</v>
       </c>
       <c r="K25" t="n">
-        <v>0.00192790062950755</v>
+        <v>0.0120216080678328</v>
       </c>
       <c r="L25" t="n">
-        <v>0.00599760643567169</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0188445650466127</v>
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.00989909979464741</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" t="n">
-        <v>0.00739225626194685</v>
+        <v>0.00623556465902154</v>
       </c>
       <c r="C26" t="n">
         <v>0.0044424671742946</v>
       </c>
       <c r="D26" t="n">
-        <v>0.00416552116728006</v>
+        <v>0.00546344682065765</v>
       </c>
       <c r="E26" t="n">
-        <v>0.00808801990762312</v>
+        <v>0.00780626036061284</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0056347013434544</v>
+        <v>0.00494941073202395</v>
       </c>
       <c r="G26" t="n">
-        <v>0.00937927698737093</v>
+        <v>0.00704187449853556</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1520,42 +1598,45 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.00202588789455407</v>
+        <v>0.00220398484545471</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0137973229605293</v>
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.0142671480896283</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" t="n">
-        <v>0.00633223240429448</v>
+        <v>0.0053740786923263</v>
       </c>
       <c r="C27" t="n">
         <v>0.00706613969157661</v>
       </c>
       <c r="D27" t="n">
-        <v>0.00473136917470422</v>
+        <v>0.0080075098469655</v>
       </c>
       <c r="E27" t="n">
-        <v>0.00767694756263787</v>
+        <v>0.00706681827292672</v>
       </c>
       <c r="F27" t="n">
-        <v>0.00565580801308019</v>
+        <v>0.00662418235538669</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0220500879166875</v>
+        <v>0.0223148271221338</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.00816168120409764</v>
+        <v>0.00972924143466308</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -1567,24 +1648,27 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0.00867495676628094</v>
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.00885262888195205</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" t="n">
-        <v>0.00147991992871334</v>
+        <v>0.00124939946618789</v>
       </c>
       <c r="C28" t="n">
         <v>0.00175688665709081</v>
       </c>
       <c r="D28" t="n">
-        <v>0.00454803616621594</v>
+        <v>0.00416298594522594</v>
       </c>
       <c r="E28" t="n">
-        <v>0.00381505037505777</v>
+        <v>0.00330224422014463</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -1602,13 +1686,16 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0.00197235707421729</v>
+        <v>0.00244374340211007</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0.00111404974817563</v>
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.000990407240247677</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/field_wish_gpt_positive.xlsx
+++ b/xlsx/country_comparison/field_wish_gpt_positive.xlsx
@@ -71,45 +71,45 @@
     <t xml:space="preserve">Family; children; childcare</t>
   </si>
   <si>
+    <t xml:space="preserve">Nothing; don't know; empty</t>
+  </si>
+  <si>
     <t xml:space="preserve">Work; (un)employment; business</t>
   </si>
   <si>
+    <t xml:space="preserve">Own country referred</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poverty; inequality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tax system; welfare benefits; public services</t>
+  </si>
+  <si>
     <t xml:space="preserve">Housing</t>
   </si>
   <si>
-    <t xml:space="preserve">Nothing; don't know; empty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Own country referred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tax system; welfare benefits; public services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poverty; inequality</t>
-  </si>
-  <si>
     <t xml:space="preserve">War; peace</t>
   </si>
   <si>
+    <t xml:space="preserve">Old age; retirement; ageing society</t>
+  </si>
+  <si>
     <t xml:space="preserve">Relationships; love; emotions</t>
   </si>
   <si>
-    <t xml:space="preserve">Old age; retirement; ageing society</t>
-  </si>
-  <si>
     <t xml:space="preserve">International issues</t>
   </si>
   <si>
     <t xml:space="preserve">Security; violence; crime; judicial system</t>
   </si>
   <si>
+    <t xml:space="preserve">Rights; democracy; freedom; slavery</t>
+  </si>
+  <si>
     <t xml:space="preserve">Education</t>
   </si>
   <si>
-    <t xml:space="preserve">Rights; democracy; freedom; slavery</t>
-  </si>
-  <si>
     <t xml:space="preserve">Corruption; criticism of the government</t>
   </si>
   <si>
@@ -122,10 +122,10 @@
     <t xml:space="preserve">Religion; sin; God</t>
   </si>
   <si>
+    <t xml:space="preserve">Criticism of immigration; national preference</t>
+  </si>
+  <si>
     <t xml:space="preserve">Global poverty; hunger; global inequality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criticism of immigration; national preference</t>
   </si>
   <si>
     <t xml:space="preserve">Criticism of far right; Trump; tariffs</t>
@@ -515,7 +515,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.480970775284582</v>
+        <v>0.441296842109439</v>
       </c>
       <c r="C2" t="n">
         <v>0.449932695668417</v>
@@ -545,7 +545,7 @@
         <v>0.286873238075924</v>
       </c>
       <c r="L2" t="n">
-        <v>0.382535914488942</v>
+        <v>0.126903211949325</v>
       </c>
       <c r="M2" t="n">
         <v>0.591065630264003</v>
@@ -559,7 +559,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.38349806600413</v>
+        <v>0.358986451498439</v>
       </c>
       <c r="C3" t="n">
         <v>0.276470716294786</v>
@@ -589,7 +589,7 @@
         <v>0.430521704554094</v>
       </c>
       <c r="L3" t="n">
-        <v>0.46237619770791</v>
+        <v>0.28959541811438</v>
       </c>
       <c r="M3" t="n">
         <v>0.438589567928279</v>
@@ -603,7 +603,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.208001412751204</v>
+        <v>0.198161661009927</v>
       </c>
       <c r="C4" t="n">
         <v>0.248313471603173</v>
@@ -633,7 +633,7 @@
         <v>0.106626903721979</v>
       </c>
       <c r="L4" t="n">
-        <v>0.203918270085564</v>
+        <v>0.143433043149037</v>
       </c>
       <c r="M4" t="n">
         <v>0.0495554116447345</v>
@@ -647,7 +647,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.162874185450769</v>
+        <v>0.169817051476306</v>
       </c>
       <c r="C5" t="n">
         <v>0.168675767460597</v>
@@ -677,7 +677,7 @@
         <v>0.068711121256305</v>
       </c>
       <c r="L5" t="n">
-        <v>0.174474491745654</v>
+        <v>0.226076004395808</v>
       </c>
       <c r="M5" t="n">
         <v>0.249014969288781</v>
@@ -691,7 +691,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.145391351550358</v>
+        <v>0.142291574054915</v>
       </c>
       <c r="C6" t="n">
         <v>0.120420461837184</v>
@@ -721,7 +721,7 @@
         <v>0.13541845331236</v>
       </c>
       <c r="L6" t="n">
-        <v>0.09851849147609</v>
+        <v>0.0748623431861901</v>
       </c>
       <c r="M6" t="n">
         <v>0.151104268891365</v>
@@ -735,43 +735,43 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1230980844336</v>
+        <v>0.134360154881326</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0925145394106335</v>
+        <v>0.144739336216069</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0641220705630488</v>
+        <v>0.169937045991076</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0741523770806195</v>
+        <v>0.129494154250173</v>
       </c>
       <c r="F7" t="n">
-        <v>0.159185858290687</v>
+        <v>0.0722512388783632</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0698329788192129</v>
+        <v>0.074365555345283</v>
       </c>
       <c r="H7" t="n">
-        <v>0.139074978626742</v>
+        <v>0.230925184978611</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0661069594109144</v>
+        <v>0.156706562068422</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0739974150158471</v>
+        <v>0.143496499849172</v>
       </c>
       <c r="K7" t="n">
-        <v>0.104448318383477</v>
+        <v>0.12023860190341</v>
       </c>
       <c r="L7" t="n">
-        <v>0.120544120041764</v>
+        <v>0.290796316593297</v>
       </c>
       <c r="M7" t="n">
-        <v>0.264705701631175</v>
+        <v>0.0204861409133044</v>
       </c>
       <c r="N7" t="n">
-        <v>0.152363486085498</v>
+        <v>0.0617420900988136</v>
       </c>
     </row>
     <row r="8">
@@ -779,43 +779,43 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.100062975811625</v>
+        <v>0.112109960453632</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0635192914300061</v>
+        <v>0.0925145394106335</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0701844083569901</v>
+        <v>0.0641220705630488</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0307277086348666</v>
+        <v>0.0741523770806195</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0880567938319764</v>
+        <v>0.159185858290687</v>
       </c>
       <c r="G8" t="n">
-        <v>0.143744057187528</v>
+        <v>0.0698329788192129</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0584045245037492</v>
+        <v>0.139074978626742</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0428909184754753</v>
+        <v>0.0661069594109144</v>
       </c>
       <c r="J8" t="n">
-        <v>0.035521555916916</v>
+        <v>0.0739974150158471</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0153511539163466</v>
+        <v>0.104448318383477</v>
       </c>
       <c r="L8" t="n">
-        <v>0.215747802030548</v>
+        <v>0.0573616287475129</v>
       </c>
       <c r="M8" t="n">
-        <v>0.124061652553908</v>
+        <v>0.264705701631175</v>
       </c>
       <c r="N8" t="n">
-        <v>0.122594419481344</v>
+        <v>0.152363486085498</v>
       </c>
     </row>
     <row r="9">
@@ -823,43 +823,43 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.100062096549258</v>
+        <v>0.104063148772217</v>
       </c>
       <c r="C9" t="n">
-        <v>0.144739336216069</v>
+        <v>0.0871316721219487</v>
       </c>
       <c r="D9" t="n">
-        <v>0.169937045991076</v>
+        <v>0.0810811941333479</v>
       </c>
       <c r="E9" t="n">
-        <v>0.129494154250173</v>
+        <v>0.106441275818055</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0722512388783632</v>
+        <v>0.0566279032087552</v>
       </c>
       <c r="G9" t="n">
-        <v>0.074365555345283</v>
+        <v>0.0520853927838186</v>
       </c>
       <c r="H9" t="n">
-        <v>0.230925184978611</v>
+        <v>0.0488300324020495</v>
       </c>
       <c r="I9" t="n">
-        <v>0.156706562068422</v>
+        <v>0.122959709506436</v>
       </c>
       <c r="J9" t="n">
-        <v>0.143496499849172</v>
+        <v>0.165051076246097</v>
       </c>
       <c r="K9" t="n">
-        <v>0.12023860190341</v>
+        <v>0.272116767843546</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0672606000602551</v>
+        <v>0.0874696342638326</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0204861409133044</v>
+        <v>0.0989443281913727</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0617420900988136</v>
+        <v>0.0666246995686403</v>
       </c>
     </row>
     <row r="10">
@@ -867,43 +867,43 @@
         <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0939759917722829</v>
+        <v>0.0952498017816782</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0871316721219487</v>
+        <v>0.0901526582578352</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0810811941333479</v>
+        <v>0.110588816330251</v>
       </c>
       <c r="E10" t="n">
-        <v>0.106441275818055</v>
+        <v>0.103388392411287</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0566279032087552</v>
+        <v>0.102315808626918</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0520853927838186</v>
+        <v>0.0871959785086038</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0488300324020495</v>
+        <v>0.106739591492894</v>
       </c>
       <c r="I10" t="n">
-        <v>0.122959709506436</v>
+        <v>0.0495594431604003</v>
       </c>
       <c r="J10" t="n">
-        <v>0.165051076246097</v>
+        <v>0.0557964745349515</v>
       </c>
       <c r="K10" t="n">
-        <v>0.272116767843546</v>
+        <v>0.095508022197655</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0192008425184825</v>
+        <v>0.132948385620608</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0989443281913727</v>
+        <v>0.160557446962959</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0666246995686403</v>
+        <v>0.0740313951637463</v>
       </c>
     </row>
     <row r="11">
@@ -911,7 +911,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0808265734542096</v>
+        <v>0.0874706518488395</v>
       </c>
       <c r="C11" t="n">
         <v>0.0672871131000313</v>
@@ -941,7 +941,7 @@
         <v>0.298063895786922</v>
       </c>
       <c r="L11" t="n">
-        <v>0.00393318790928157</v>
+        <v>0.0466741458925149</v>
       </c>
       <c r="M11" t="n">
         <v>0.0336826727723516</v>
@@ -955,43 +955,43 @@
         <v>24</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0780730030648798</v>
+        <v>0.0770377228095487</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0901526582578352</v>
+        <v>0.0635192914300062</v>
       </c>
       <c r="D12" t="n">
-        <v>0.110588816330251</v>
+        <v>0.0701844083569901</v>
       </c>
       <c r="E12" t="n">
-        <v>0.103388392411287</v>
+        <v>0.0307277086348666</v>
       </c>
       <c r="F12" t="n">
-        <v>0.102315808626918</v>
+        <v>0.0880567938319764</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0871959785086038</v>
+        <v>0.143744057187528</v>
       </c>
       <c r="H12" t="n">
-        <v>0.106739591492894</v>
+        <v>0.0584045245037492</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0495594431604003</v>
+        <v>0.0428909184754753</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0557964745349515</v>
+        <v>0.035521555916916</v>
       </c>
       <c r="K12" t="n">
-        <v>0.095508022197655</v>
+        <v>0.0153511539163466</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0249805501888962</v>
+        <v>0.0571239345943341</v>
       </c>
       <c r="M12" t="n">
-        <v>0.160557446962959</v>
+        <v>0.124061652553908</v>
       </c>
       <c r="N12" t="n">
-        <v>0.0740313951637463</v>
+        <v>0.122594419481344</v>
       </c>
     </row>
     <row r="13">
@@ -999,7 +999,7 @@
         <v>25</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0727288953861513</v>
+        <v>0.0756465636056349</v>
       </c>
       <c r="C13" t="n">
         <v>0.100552755154766</v>
@@ -1029,7 +1029,7 @@
         <v>0.0884812762770774</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0176579144102982</v>
+        <v>0.0412611252283482</v>
       </c>
       <c r="M13" t="n">
         <v>0.0284285462270132</v>
@@ -1043,43 +1043,43 @@
         <v>26</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0689741029954947</v>
+        <v>0.0693730599263398</v>
       </c>
       <c r="C14" t="n">
-        <v>0.062252860473158</v>
+        <v>0.0555416335961559</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0786250915915428</v>
+        <v>0.0680403585016069</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0732239079678448</v>
+        <v>0.0701807637107807</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0554277120006161</v>
+        <v>0.035525824296384</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0191130117994314</v>
+        <v>0.0266671385915977</v>
       </c>
       <c r="H14" t="n">
-        <v>0.048082149805928</v>
+        <v>0.0335240300903662</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0673369545398527</v>
+        <v>0.0800222364918165</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0420484062401228</v>
+        <v>0.0537928392806654</v>
       </c>
       <c r="K14" t="n">
-        <v>0.00667429312556995</v>
+        <v>0.0964609688274934</v>
       </c>
       <c r="L14" t="n">
-        <v>0.030201942347826</v>
+        <v>0.0440008049449396</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0220996987239972</v>
+        <v>0.0317427123668093</v>
       </c>
       <c r="N14" t="n">
-        <v>0.121035579433543</v>
+        <v>0.0916662947607395</v>
       </c>
     </row>
     <row r="15">
@@ -1087,43 +1087,43 @@
         <v>27</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0659235352741367</v>
+        <v>0.0683584853787358</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0555416335961559</v>
+        <v>0.062252860473158</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0680403585016069</v>
+        <v>0.0786250915915428</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0701807637107807</v>
+        <v>0.0732239079678448</v>
       </c>
       <c r="F15" t="n">
-        <v>0.035525824296384</v>
+        <v>0.0554277120006161</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0266671385915977</v>
+        <v>0.0191130117994314</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0335240300903662</v>
+        <v>0.048082149805928</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0800222364918165</v>
+        <v>0.0673369545398527</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0537928392806654</v>
+        <v>0.0420484062401228</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0964609688274934</v>
+        <v>0.00667429312556995</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0230100195412476</v>
+        <v>0.0273785693634304</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0317427123668093</v>
+        <v>0.0220996987239972</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0916662947607395</v>
+        <v>0.121035579433543</v>
       </c>
     </row>
     <row r="16">
@@ -1131,7 +1131,7 @@
         <v>28</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0623290483975112</v>
+        <v>0.0635845447230405</v>
       </c>
       <c r="C16" t="n">
         <v>0.0678888899197089</v>
@@ -1161,7 +1161,7 @@
         <v>0.0808841576801516</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0310488638645976</v>
+        <v>0.0392823899538042</v>
       </c>
       <c r="M16" t="n">
         <v>0.0337093324848879</v>
@@ -1175,7 +1175,7 @@
         <v>29</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0571199359009079</v>
+        <v>0.0594346632455331</v>
       </c>
       <c r="C17" t="n">
         <v>0.0619921172149611</v>
@@ -1205,7 +1205,7 @@
         <v>0.101644374785414</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0269160301794523</v>
+        <v>0.039413655238913</v>
       </c>
       <c r="M17" t="n">
         <v>0.0229930688654548</v>
@@ -1219,43 +1219,43 @@
         <v>30</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0288094397935801</v>
+        <v>0.031130565528993</v>
       </c>
       <c r="C18" t="n">
-        <v>0.017611031177937</v>
+        <v>0.032995705857802</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0185418084524379</v>
+        <v>0.018052233261442</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0171594663909559</v>
+        <v>0.0513222885365416</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0113959123064546</v>
+        <v>0.0112250333288652</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0086597594208662</v>
+        <v>0.0410415469087226</v>
       </c>
       <c r="H18" t="n">
-        <v>0.020847666658421</v>
+        <v>0.00941716266274787</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0195685497628379</v>
+        <v>0.0474725902142303</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0101314460773026</v>
+        <v>0.109256759002246</v>
       </c>
       <c r="K18" t="n">
-        <v>0.025598914163423</v>
+        <v>0.0173924457833681</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0532856140622275</v>
+        <v>0.0316886280319162</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0790068821805726</v>
+        <v>0.0306299118348573</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0262985917231421</v>
+        <v>0.0332636586344221</v>
       </c>
     </row>
     <row r="19">
@@ -1263,43 +1263,43 @@
         <v>31</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0264810788851443</v>
+        <v>0.0271815945113994</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0329957058578021</v>
+        <v>0.017611031177937</v>
       </c>
       <c r="D19" t="n">
-        <v>0.018052233261442</v>
+        <v>0.0185418084524379</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0513222885365416</v>
+        <v>0.0171594663909559</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0112250333288652</v>
+        <v>0.0113959123064546</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0410415469087226</v>
+        <v>0.0086597594208662</v>
       </c>
       <c r="H19" t="n">
-        <v>0.00941716266274787</v>
+        <v>0.020847666658421</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0474725902142303</v>
+        <v>0.0195685497628379</v>
       </c>
       <c r="J19" t="n">
-        <v>0.109256759002246</v>
+        <v>0.0101314460773026</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0173924457833681</v>
+        <v>0.025598914163423</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>0.0427144443182424</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0306299118348573</v>
+        <v>0.0790068821805726</v>
       </c>
       <c r="N19" t="n">
-        <v>0.0332636586344221</v>
+        <v>0.0262985917231421</v>
       </c>
     </row>
     <row r="20">
@@ -1307,7 +1307,7 @@
         <v>32</v>
       </c>
       <c r="B20" t="n">
-        <v>0.018601891708331</v>
+        <v>0.0249117443373189</v>
       </c>
       <c r="C20" t="n">
         <v>0.0222920372084341</v>
@@ -1337,7 +1337,7 @@
         <v>0.0488627195025423</v>
       </c>
       <c r="L20" t="n">
-        <v>0.00336318400236858</v>
+        <v>0.046755747780688</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>33</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0164627970358194</v>
+        <v>0.0205470813591216</v>
       </c>
       <c r="C21" t="n">
         <v>0.0216396600356974</v>
@@ -1381,7 +1381,7 @@
         <v>0.0108251287360204</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>0.0279634801124558</v>
       </c>
       <c r="M21" t="n">
         <v>0.0335435645639343</v>
@@ -1395,7 +1395,7 @@
         <v>34</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0136659898775387</v>
+        <v>0.0147062967378243</v>
       </c>
       <c r="C22" t="n">
         <v>0.0230983022518674</v>
@@ -1425,7 +1425,7 @@
         <v>0.0159744352607008</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>0.00689457553847729</v>
       </c>
       <c r="M22" t="n">
         <v>0.0056591287316197</v>
@@ -1439,7 +1439,7 @@
         <v>35</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0118261048133898</v>
+        <v>0.0129984622660514</v>
       </c>
       <c r="C23" t="n">
         <v>0.00653485539630399</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0034066379177454</v>
+        <v>0.00948016034952536</v>
       </c>
       <c r="M23" t="n">
         <v>0.0568545854228377</v>
@@ -1483,43 +1483,43 @@
         <v>36</v>
       </c>
       <c r="B24" t="n">
-        <v>0.00998148983442071</v>
+        <v>0.0109995768215665</v>
       </c>
       <c r="C24" t="n">
-        <v>0.00819935265978798</v>
+        <v>0.013047801090276</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0102960558913913</v>
+        <v>0.00313017848487854</v>
       </c>
       <c r="E24" t="n">
-        <v>0.00330224422014463</v>
+        <v>0.0289071544718255</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0191647460002275</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.00737184881470268</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.00304250610842262</v>
+        <v>0.0199424753566033</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0209182508826024</v>
+        <v>0.0476756028609541</v>
       </c>
       <c r="K24" t="n">
-        <v>0.00174709977982922</v>
+        <v>0.0120216080678328</v>
       </c>
       <c r="L24" t="n">
-        <v>0.00329109661641107</v>
+        <v>0.0101812466154841</v>
       </c>
       <c r="M24" t="n">
-        <v>0.00476906523058334</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0.0181877874252677</v>
+        <v>0.00989909979464741</v>
       </c>
     </row>
     <row r="25">
@@ -1527,43 +1527,43 @@
         <v>37</v>
       </c>
       <c r="B25" t="n">
-        <v>0.00954549057913873</v>
+        <v>0.00941685109130378</v>
       </c>
       <c r="C25" t="n">
-        <v>0.013047801090276</v>
+        <v>0.00819935265978798</v>
       </c>
       <c r="D25" t="n">
-        <v>0.00313017848487854</v>
+        <v>0.0102960558913913</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0289071544718255</v>
+        <v>0.00330224422014463</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>0.0191647460002275</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>0.00737184881470268</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0199424753566033</v>
+        <v>0.00304250610842262</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0476756028609541</v>
+        <v>0.0209182508826024</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0120216080678328</v>
+        <v>0.00174709977982922</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>0.00476906523058334</v>
       </c>
       <c r="N25" t="n">
-        <v>0.00989909979464741</v>
+        <v>0.0181877874252677</v>
       </c>
     </row>
     <row r="26">
@@ -1571,7 +1571,7 @@
         <v>38</v>
       </c>
       <c r="B26" t="n">
-        <v>0.00623556465902154</v>
+        <v>0.00623833363261425</v>
       </c>
       <c r="C26" t="n">
         <v>0.0044424671742946</v>
@@ -1615,7 +1615,7 @@
         <v>39</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0053740786923263</v>
+        <v>0.00537646511325173</v>
       </c>
       <c r="C27" t="n">
         <v>0.00706613969157661</v>
@@ -1659,7 +1659,7 @@
         <v>40</v>
       </c>
       <c r="B28" t="n">
-        <v>0.00124939946618789</v>
+        <v>0.00501342589741842</v>
       </c>
       <c r="C28" t="n">
         <v>0.00175688665709081</v>
@@ -1689,7 +1689,7 @@
         <v>0.00244374340211007</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>0.0239299960466604</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
